--- a/chronostar/betaPic.xlsx
+++ b/chronostar/betaPic.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mireland/python/chronostar/chronostar/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="0" windowWidth="27760" windowHeight="15080" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="betaPic.csv" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -20,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="222">
   <si>
     <t>Name</t>
   </si>
@@ -598,9 +607,6 @@
     <t>Refs</t>
   </si>
   <si>
-    <t>2: G : Gontcharov 2006</t>
-  </si>
-  <si>
     <t>RV_B</t>
   </si>
   <si>
@@ -680,6 +686,15 @@
   </si>
   <si>
     <t>beta Pic</t>
+  </si>
+  <si>
+    <t>G : Gontcharov 2006</t>
+  </si>
+  <si>
+    <t>B: Bailey (2012)</t>
+  </si>
+  <si>
+    <t>T: Torres (2007)</t>
   </si>
 </sst>
 </file>
@@ -842,6 +857,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1167,24 +1187,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK37"/>
+  <dimension ref="A1:AK39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R9" sqref="R9:S9"/>
+      <selection activeCell="R1" activeCellId="1" sqref="A1:A25 R1:U25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="17" width="10.83203125" customWidth="1"/>
     <col min="29" max="29" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1214,85 +1234,85 @@
         <v>190</v>
       </c>
       <c r="L1" t="s">
+        <v>192</v>
+      </c>
+      <c r="M1" t="s">
         <v>193</v>
       </c>
-      <c r="M1" t="s">
-        <v>194</v>
-      </c>
       <c r="N1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O1" t="s">
         <v>199</v>
       </c>
-      <c r="O1" t="s">
-        <v>200</v>
-      </c>
       <c r="P1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q1" t="s">
         <v>197</v>
       </c>
-      <c r="Q1" t="s">
-        <v>198</v>
-      </c>
       <c r="R1" t="s">
+        <v>201</v>
+      </c>
+      <c r="S1" t="s">
         <v>202</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
+        <v>207</v>
+      </c>
+      <c r="U1" t="s">
+        <v>208</v>
+      </c>
+      <c r="V1" t="s">
         <v>203</v>
       </c>
-      <c r="T1" t="s">
-        <v>208</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
+        <v>204</v>
+      </c>
+      <c r="X1" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB1" t="s">
         <v>209</v>
       </c>
-      <c r="V1" t="s">
-        <v>204</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="AC1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH1" t="s">
         <v>205</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AI1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>206</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AK1" t="s">
         <v>212</v>
       </c>
-      <c r="Z1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>215</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>214</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>216</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>217</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37">
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1318,7 +1338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1389,19 +1409,19 @@
         <v>97.81</v>
       </c>
       <c r="AI3">
-        <f t="shared" ref="AI3:AK3" si="0">IF(AD3 &lt;&gt;"",AD3,Y3)</f>
+        <f>IF(AD3 &lt;&gt;"",AD3,Y3)</f>
         <v>0.42</v>
       </c>
       <c r="AJ3">
-        <f t="shared" si="0"/>
+        <f>IF(AE3 &lt;&gt;"",AE3,Z3)</f>
         <v>-47.12</v>
       </c>
       <c r="AK3">
-        <f t="shared" si="0"/>
+        <f>IF(AF3 &lt;&gt;"",AF3,AA3)</f>
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1433,11 +1453,11 @@
         <v>0.3</v>
       </c>
       <c r="R4">
-        <f t="shared" ref="R4:R30" si="1">MAX(J4,L4,N4,P4)</f>
+        <f>MAX(J4,L4,N4,P4)</f>
         <v>5.7</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S32" si="2">MAX(K4,M4,O4,Q4,0.3)</f>
+        <f>MAX(K4,M4,O4,Q4,0.3)</f>
         <v>0.3</v>
       </c>
       <c r="T4">
@@ -1480,23 +1500,23 @@
         <v>1</v>
       </c>
       <c r="AH4">
-        <f t="shared" ref="AH4:AH32" si="3">IF(AC4 &lt;&gt;"",AC4,X4)</f>
+        <f>IF(AC4 &lt;&gt;"",AC4,X4)</f>
         <v>98.2</v>
       </c>
       <c r="AI4">
-        <f t="shared" ref="AI4:AI32" si="4">IF(AD4 &lt;&gt;"",AD4,Y4)</f>
+        <f>IF(AD4 &lt;&gt;"",AD4,Y4)</f>
         <v>1</v>
       </c>
       <c r="AJ4">
-        <f t="shared" ref="AJ4:AJ32" si="5">IF(AE4 &lt;&gt;"",AE4,Z4)</f>
+        <f>IF(AE4 &lt;&gt;"",AE4,Z4)</f>
         <v>-67.400000000000006</v>
       </c>
       <c r="AK4">
-        <f t="shared" ref="AK4:AK32" si="6">IF(AF4 &lt;&gt;"",AF4,AA4)</f>
+        <f>IF(AF4 &lt;&gt;"",AF4,AA4)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1528,11 +1548,11 @@
         <v>0.5</v>
       </c>
       <c r="R5">
-        <f t="shared" si="1"/>
+        <f>MAX(J5,L5,N5,P5)</f>
         <v>4.8</v>
       </c>
       <c r="S5">
-        <f t="shared" si="2"/>
+        <f>MAX(K5,M5,O5,Q5,0.3)</f>
         <v>0.5</v>
       </c>
       <c r="T5">
@@ -1575,2213 +1595,2325 @@
         <v>1</v>
       </c>
       <c r="AH5">
-        <f t="shared" si="3"/>
+        <f>IF(AC5 &lt;&gt;"",AC5,X5)</f>
         <v>94.3</v>
       </c>
       <c r="AI5">
-        <f t="shared" si="4"/>
+        <f>IF(AD5 &lt;&gt;"",AD5,Y5)</f>
         <v>1</v>
       </c>
       <c r="AJ5">
-        <f t="shared" si="5"/>
+        <f>IF(AE5 &lt;&gt;"",AE5,Z5)</f>
         <v>-72.2</v>
       </c>
       <c r="AK5">
-        <f t="shared" si="6"/>
+        <f>IF(AF5 &lt;&gt;"",AF5,AA5)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:37" s="1" customFormat="1">
-      <c r="A6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="1" t="s">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>19.8</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="1">
-        <v>5.9610000000000003</v>
-      </c>
-      <c r="M6" s="1">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="R6" s="1">
-        <f t="shared" si="1"/>
-        <v>5.9610000000000003</v>
-      </c>
-      <c r="S6" s="1">
-        <f t="shared" si="2"/>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6">
+        <v>6.7430000000000003</v>
+      </c>
+      <c r="M6">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="R6">
+        <f>AVERAGE(L6,L31)</f>
+        <v>6.3520000000000003</v>
+      </c>
+      <c r="S6">
+        <f>MAX(K6,M6,O6,Q6,0.3)</f>
         <v>0.3</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6">
         <v>36.871667449999997</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6">
         <v>30.97367393</v>
       </c>
-      <c r="V6" s="1">
+      <c r="V6">
         <v>25.03</v>
       </c>
-      <c r="W6" s="1">
+      <c r="W6">
         <v>2.25</v>
       </c>
-      <c r="X6" s="1">
+      <c r="X6">
         <v>79.78</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Y6">
         <v>2.56</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="Z6">
         <v>-70.02</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AA6">
         <v>1.73</v>
       </c>
-      <c r="AB6" s="1">
-        <v>0</v>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="AD6">
+        <v>0.9</v>
+      </c>
+      <c r="AE6">
+        <v>-70.099999999999994</v>
+      </c>
+      <c r="AF6">
+        <v>1.3</v>
       </c>
       <c r="AH6">
-        <f t="shared" si="3"/>
-        <v>79.78</v>
+        <f>IF(AC6 &lt;&gt;"",AC6,X6)</f>
+        <v>80.400000000000006</v>
       </c>
       <c r="AI6">
-        <f t="shared" si="4"/>
-        <v>2.56</v>
+        <f>IF(AD6 &lt;&gt;"",AD6,Y6)</f>
+        <v>0.9</v>
       </c>
       <c r="AJ6">
-        <f t="shared" si="5"/>
-        <v>-70.02</v>
+        <f>IF(AE6 &lt;&gt;"",AE6,Z6)</f>
+        <v>-70.099999999999994</v>
       </c>
       <c r="AK6">
-        <f t="shared" si="6"/>
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37">
+        <f>IF(AF6 &lt;&gt;"",AF6,AA6)</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E7">
-        <v>19.8</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="L7">
-        <v>6.7430000000000003</v>
+        <v>8.2530000000000001</v>
       </c>
       <c r="M7">
-        <v>2.5999999999999999E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="R7">
-        <f>AVERAGE(L7,L6)</f>
-        <v>6.3520000000000003</v>
+        <f>MAX(J7,L7,N7,P7)</f>
+        <v>8.2530000000000001</v>
       </c>
       <c r="S7">
-        <f t="shared" si="2"/>
+        <f>MAX(K7,M7,O7,Q7,0.3)</f>
         <v>0.3</v>
       </c>
       <c r="T7">
-        <v>36.871667449999997</v>
+        <v>40.357673720000001</v>
       </c>
       <c r="U7">
-        <v>30.97367393</v>
+        <v>5.98858128</v>
       </c>
       <c r="V7">
-        <v>25.03</v>
+        <v>23.79</v>
       </c>
       <c r="W7">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="X7">
-        <v>79.78</v>
+        <v>79.47</v>
       </c>
       <c r="Y7">
-        <v>2.56</v>
+        <v>3.05</v>
       </c>
       <c r="Z7">
-        <v>-70.02</v>
+        <v>-53.89</v>
       </c>
       <c r="AA7">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="AB7">
         <v>1</v>
       </c>
       <c r="AC7">
-        <v>80.400000000000006</v>
+        <v>78.3</v>
       </c>
       <c r="AD7">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AE7">
-        <v>-70.099999999999994</v>
+        <v>-60.2</v>
       </c>
       <c r="AF7">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AH7">
-        <f t="shared" si="3"/>
-        <v>80.400000000000006</v>
+        <f>IF(AC7 &lt;&gt;"",AC7,X7)</f>
+        <v>78.3</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="4"/>
-        <v>0.9</v>
+        <f>IF(AD7 &lt;&gt;"",AD7,Y7)</f>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AJ7">
-        <f t="shared" si="5"/>
-        <v>-70.099999999999994</v>
+        <f>IF(AE7 &lt;&gt;"",AE7,Z7)</f>
+        <v>-60.2</v>
       </c>
       <c r="AK7">
-        <f t="shared" si="6"/>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37">
+        <f>IF(AF7 &lt;&gt;"",AF7,AA7)</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8">
-        <v>8.2530000000000001</v>
-      </c>
-      <c r="M8">
-        <v>4.8000000000000001E-2</v>
+        <v>55</v>
+      </c>
+      <c r="J8">
+        <v>12.6</v>
+      </c>
+      <c r="K8">
+        <v>0.3</v>
+      </c>
+      <c r="P8">
+        <v>20.76</v>
+      </c>
+      <c r="Q8">
+        <v>0.18</v>
       </c>
       <c r="R8">
-        <f t="shared" si="1"/>
-        <v>8.2530000000000001</v>
+        <f>P8</f>
+        <v>20.76</v>
       </c>
       <c r="S8">
-        <f t="shared" si="2"/>
+        <f>0.3</f>
         <v>0.3</v>
       </c>
       <c r="T8">
-        <v>40.357673720000001</v>
+        <v>69.400443850000002</v>
       </c>
       <c r="U8">
-        <v>5.98858128</v>
+        <v>-2.4733920700000001</v>
       </c>
       <c r="V8">
-        <v>23.79</v>
+        <v>33.979999999999997</v>
       </c>
       <c r="W8">
-        <v>1.5</v>
+        <v>0.34</v>
       </c>
       <c r="X8">
-        <v>79.47</v>
+        <v>44.22</v>
       </c>
       <c r="Y8">
-        <v>3.05</v>
+        <v>0.34</v>
       </c>
       <c r="Z8">
-        <v>-53.89</v>
+        <v>-64.39</v>
       </c>
       <c r="AA8">
-        <v>1.74</v>
+        <v>0.27</v>
       </c>
       <c r="AB8">
         <v>1</v>
       </c>
-      <c r="AC8">
-        <v>78.3</v>
-      </c>
-      <c r="AD8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AE8">
-        <v>-60.2</v>
-      </c>
-      <c r="AF8">
-        <v>1.6</v>
-      </c>
       <c r="AH8">
-        <f t="shared" si="3"/>
-        <v>78.3</v>
+        <f>IF(AC8 &lt;&gt;"",AC8,X8)</f>
+        <v>44.22</v>
       </c>
       <c r="AI8">
-        <f t="shared" si="4"/>
-        <v>1.1000000000000001</v>
+        <f>IF(AD8 &lt;&gt;"",AD8,Y8)</f>
+        <v>0.34</v>
       </c>
       <c r="AJ8">
-        <f t="shared" si="5"/>
-        <v>-60.2</v>
+        <f>IF(AE8 &lt;&gt;"",AE8,Z8)</f>
+        <v>-64.39</v>
       </c>
       <c r="AK8">
-        <f t="shared" si="6"/>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37">
+        <f>IF(AF8 &lt;&gt;"",AF8,AA8)</f>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>48</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B9"/>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9">
-        <v>12.6</v>
-      </c>
-      <c r="K9">
+        <v>67</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="O9">
         <v>0.3</v>
       </c>
-      <c r="P9">
-        <v>20.76</v>
-      </c>
-      <c r="Q9">
-        <v>0.18</v>
-      </c>
+      <c r="P9"/>
+      <c r="Q9"/>
       <c r="R9">
-        <f>P9</f>
-        <v>20.76</v>
+        <f>MAX(J9,L9,N9,P9)</f>
+        <v>19.399999999999999</v>
       </c>
       <c r="S9">
-        <f>0.3</f>
+        <f>MAX(K9,M9,O9,Q9,0.3)</f>
         <v>0.3</v>
       </c>
       <c r="T9">
-        <v>69.400443850000002</v>
+        <v>75.196215600000002</v>
       </c>
       <c r="U9">
-        <v>-2.4733920700000001</v>
+        <v>-57.257250519999999</v>
       </c>
       <c r="V9">
-        <v>33.979999999999997</v>
+        <v>37.340000000000003</v>
       </c>
       <c r="W9">
-        <v>0.34</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="X9">
-        <v>44.22</v>
+        <v>36.340000000000003</v>
       </c>
       <c r="Y9">
-        <v>0.34</v>
+        <v>1.42</v>
       </c>
       <c r="Z9">
-        <v>-64.39</v>
+        <v>70.22</v>
       </c>
       <c r="AA9">
-        <v>0.27</v>
+        <v>1.27</v>
       </c>
       <c r="AB9">
         <v>1</v>
       </c>
+      <c r="AC9">
+        <v>35.5</v>
+      </c>
+      <c r="AD9">
+        <v>0.9</v>
+      </c>
+      <c r="AE9">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="AF9">
+        <v>0.9</v>
+      </c>
+      <c r="AG9"/>
       <c r="AH9">
-        <f t="shared" si="3"/>
-        <v>44.22</v>
+        <f>IF(AC9 &lt;&gt;"",AC9,X9)</f>
+        <v>35.5</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="4"/>
-        <v>0.34</v>
+        <f>IF(AD9 &lt;&gt;"",AD9,Y9)</f>
+        <v>0.9</v>
       </c>
       <c r="AJ9">
-        <f t="shared" si="5"/>
-        <v>-64.39</v>
+        <f>IF(AE9 &lt;&gt;"",AE9,Z9)</f>
+        <v>74.400000000000006</v>
       </c>
       <c r="AK9">
-        <f t="shared" si="6"/>
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" s="1" customFormat="1">
-      <c r="A10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L10" s="1">
-        <v>20.625</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="R10" s="1">
-        <f t="shared" si="1"/>
-        <v>20.625</v>
-      </c>
-      <c r="S10" s="1">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="AB10" s="1">
-        <v>0</v>
+        <f>IF(AF9 &lt;&gt;"",AF9,AA9)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10">
+        <v>14.9</v>
+      </c>
+      <c r="K10">
+        <v>3.5</v>
+      </c>
+      <c r="R10">
+        <f>MAX(J10,L10,N10,P10)</f>
+        <v>14.9</v>
+      </c>
+      <c r="S10">
+        <f>MAX(K10,M10,O10,Q10,0.3)</f>
+        <v>3.5</v>
+      </c>
+      <c r="T10">
+        <v>75.494945950000002</v>
+      </c>
+      <c r="U10">
+        <v>9.9833157299999993</v>
+      </c>
+      <c r="V10">
+        <v>30.12</v>
+      </c>
+      <c r="W10">
+        <v>9.56</v>
+      </c>
+      <c r="X10">
+        <v>12.09</v>
+      </c>
+      <c r="Y10">
+        <v>9.92</v>
+      </c>
+      <c r="Z10">
+        <v>-74.41</v>
+      </c>
+      <c r="AA10">
+        <v>5.71</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
       </c>
       <c r="AH10">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>IF(AC10 &lt;&gt;"",AC10,X10)</f>
+        <v>12.09</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(AD10 &lt;&gt;"",AD10,Y10)</f>
+        <v>9.92</v>
       </c>
       <c r="AJ10">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>IF(AE10 &lt;&gt;"",AE10,Z10)</f>
+        <v>-74.41</v>
       </c>
       <c r="AK10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37">
+        <f>IF(AF10 &lt;&gt;"",AF10,AA10)</f>
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>218</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
-      </c>
-      <c r="N11">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="O11">
-        <v>0.3</v>
+        <v>86</v>
+      </c>
+      <c r="J11">
+        <v>20</v>
+      </c>
+      <c r="K11">
+        <v>0.7</v>
       </c>
       <c r="R11">
-        <f t="shared" si="1"/>
-        <v>19.399999999999999</v>
+        <f>MAX(J11,L11,N11,P11)</f>
+        <v>20</v>
       </c>
       <c r="S11">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
+        <f>MAX(K11,M11,O11,Q11,0.3)</f>
+        <v>0.7</v>
       </c>
       <c r="T11">
-        <v>75.196215600000002</v>
+        <v>86.821180720000001</v>
       </c>
       <c r="U11">
-        <v>-57.257250519999999</v>
+        <v>-51.066713409999998</v>
       </c>
       <c r="V11">
-        <v>37.340000000000003</v>
+        <v>51.44</v>
       </c>
       <c r="W11">
-        <v>1.1299999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="X11">
-        <v>36.340000000000003</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="Y11">
-        <v>1.42</v>
+        <v>0.11</v>
       </c>
       <c r="Z11">
-        <v>70.22</v>
+        <v>83.1</v>
       </c>
       <c r="AA11">
-        <v>1.27</v>
+        <v>0.15</v>
       </c>
       <c r="AB11">
         <v>1</v>
       </c>
-      <c r="AC11">
-        <v>35.5</v>
-      </c>
-      <c r="AD11">
+      <c r="AH11">
+        <f>IF(AC11 &lt;&gt;"",AC11,X11)</f>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="AI11">
+        <f>IF(AD11 &lt;&gt;"",AD11,Y11)</f>
+        <v>0.11</v>
+      </c>
+      <c r="AJ11">
+        <f>IF(AE11 &lt;&gt;"",AE11,Z11)</f>
+        <v>83.1</v>
+      </c>
+      <c r="AK11">
+        <f>IF(AF11 &lt;&gt;"",AF11,AA11)</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12">
+        <v>7.4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12">
+        <v>15.7</v>
+      </c>
+      <c r="Q12">
+        <v>0.7</v>
+      </c>
+      <c r="R12">
+        <f>MAX(J12,L12,N12,P12)</f>
+        <v>15.7</v>
+      </c>
+      <c r="S12">
+        <f>MAX(K12,M12,O12,Q12,0.3)</f>
+        <v>0.7</v>
+      </c>
+      <c r="T12">
+        <v>94.617592560000006</v>
+      </c>
+      <c r="U12">
+        <v>-72.045027079999997</v>
+      </c>
+      <c r="V12">
+        <v>25.94</v>
+      </c>
+      <c r="W12">
         <v>0.9</v>
       </c>
-      <c r="AE11">
-        <v>74.400000000000006</v>
-      </c>
-      <c r="AF11">
-        <v>0.9</v>
-      </c>
-      <c r="AH11">
-        <f t="shared" si="3"/>
-        <v>35.5</v>
-      </c>
-      <c r="AI11">
-        <f t="shared" si="4"/>
-        <v>0.9</v>
-      </c>
-      <c r="AJ11">
-        <f t="shared" si="5"/>
-        <v>74.400000000000006</v>
-      </c>
-      <c r="AK11">
-        <f t="shared" si="6"/>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37">
-      <c r="A12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" t="s">
-        <v>74</v>
-      </c>
-      <c r="J12">
-        <v>14.9</v>
-      </c>
-      <c r="K12">
-        <v>3.5</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="1"/>
-        <v>14.9</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="2"/>
-        <v>3.5</v>
-      </c>
-      <c r="T12">
-        <v>75.494945950000002</v>
-      </c>
-      <c r="U12">
-        <v>9.9833157299999993</v>
-      </c>
-      <c r="V12">
-        <v>30.12</v>
-      </c>
-      <c r="W12">
-        <v>9.56</v>
-      </c>
       <c r="X12">
-        <v>12.09</v>
+        <v>-8.32</v>
       </c>
       <c r="Y12">
-        <v>9.92</v>
+        <v>0.86</v>
       </c>
       <c r="Z12">
-        <v>-74.41</v>
+        <v>72.02</v>
       </c>
       <c r="AA12">
-        <v>5.71</v>
+        <v>1.06</v>
       </c>
       <c r="AB12">
         <v>1</v>
       </c>
+      <c r="AC12">
+        <v>-6.4</v>
+      </c>
+      <c r="AD12">
+        <v>0.9</v>
+      </c>
+      <c r="AE12">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="AF12">
+        <v>0.8</v>
+      </c>
+      <c r="AG12"/>
       <c r="AH12">
-        <f t="shared" si="3"/>
-        <v>12.09</v>
+        <f>IF(AC12 &lt;&gt;"",AC12,X12)</f>
+        <v>-6.4</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="4"/>
-        <v>9.92</v>
+        <f>IF(AD12 &lt;&gt;"",AD12,Y12)</f>
+        <v>0.9</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="5"/>
-        <v>-74.41</v>
+        <f>IF(AE12 &lt;&gt;"",AE12,Z12)</f>
+        <v>76.400000000000006</v>
       </c>
       <c r="AK12">
-        <f t="shared" si="6"/>
-        <v>5.71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" s="1" customFormat="1">
-      <c r="A13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="1" t="s">
+        <f>IF(AF12 &lt;&gt;"",AF12,AA12)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="T13" s="1">
-        <v>110.8717676</v>
-      </c>
-      <c r="U13" s="1">
-        <v>66.779274490000006</v>
-      </c>
-      <c r="V13" s="1">
-        <v>7.18</v>
-      </c>
-      <c r="W13" s="1">
-        <v>2.19</v>
-      </c>
-      <c r="X13" s="1">
-        <v>122.68</v>
-      </c>
-      <c r="Y13" s="1">
-        <v>1.55</v>
-      </c>
-      <c r="Z13" s="1">
-        <v>-128.13999999999999</v>
-      </c>
-      <c r="AA13" s="1">
-        <v>1.74</v>
-      </c>
-      <c r="AB13" s="1">
-        <v>0</v>
+      <c r="D13">
+        <v>31.1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13">
+        <v>3.1</v>
+      </c>
+      <c r="K13">
+        <v>0.8</v>
+      </c>
+      <c r="R13">
+        <f>MAX(J13,L13,N13,P13)</f>
+        <v>3.1</v>
+      </c>
+      <c r="S13">
+        <f>MAX(K13,M13,O13,Q13,0.3)</f>
+        <v>0.8</v>
+      </c>
+      <c r="T13">
+        <v>234.74000905</v>
+      </c>
+      <c r="U13">
+        <v>-57.707336400000003</v>
+      </c>
+      <c r="V13">
+        <v>25.95</v>
+      </c>
+      <c r="W13">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="X13">
+        <v>-53.98</v>
+      </c>
+      <c r="Y13">
+        <v>1.27</v>
+      </c>
+      <c r="Z13">
+        <v>-106</v>
+      </c>
+      <c r="AA13">
+        <v>1.21</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="3"/>
-        <v>122.68</v>
+        <f>IF(AC13 &lt;&gt;"",AC13,X13)</f>
+        <v>-53.98</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="4"/>
-        <v>1.55</v>
+        <f>IF(AD13 &lt;&gt;"",AD13,Y13)</f>
+        <v>1.27</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="5"/>
-        <v>-128.13999999999999</v>
+        <f>IF(AE13 &lt;&gt;"",AE13,Z13)</f>
+        <v>-106</v>
       </c>
       <c r="AK13">
-        <f t="shared" si="6"/>
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37">
+        <f>IF(AF13 &lt;&gt;"",AF13,AA13)</f>
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>219</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
-      <c r="D14" t="s">
-        <v>81</v>
+      <c r="D14">
+        <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" t="s">
-        <v>83</v>
+        <v>101</v>
+      </c>
+      <c r="F14">
+        <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="H14" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="I14" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="J14">
-        <v>20</v>
+        <v>-13</v>
       </c>
       <c r="K14">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="R14">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f>MAX(J14,L14,N14,P14)</f>
+        <v>-13</v>
       </c>
       <c r="S14">
-        <f t="shared" si="2"/>
-        <v>0.7</v>
+        <f>MAX(K14,M14,O14,Q14,0.3)</f>
+        <v>0.8</v>
       </c>
       <c r="T14">
-        <v>86.821180720000001</v>
+        <v>244.57467037999999</v>
       </c>
       <c r="U14">
-        <v>-51.066713409999998</v>
+        <v>-28.613776040000001</v>
       </c>
       <c r="V14">
-        <v>51.44</v>
+        <v>24.22</v>
       </c>
       <c r="W14">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="X14">
-        <v>4.6500000000000004</v>
+        <v>-31.19</v>
       </c>
       <c r="Y14">
-        <v>0.11</v>
+        <v>0.26</v>
       </c>
       <c r="Z14">
-        <v>83.1</v>
+        <v>-100.92</v>
       </c>
       <c r="AA14">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="AB14">
         <v>1</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="3"/>
-        <v>4.6500000000000004</v>
+        <f>IF(AC14 &lt;&gt;"",AC14,X14)</f>
+        <v>-31.19</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="4"/>
-        <v>0.11</v>
+        <f>IF(AD14 &lt;&gt;"",AD14,Y14)</f>
+        <v>0.26</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="5"/>
-        <v>83.1</v>
+        <f>IF(AE14 &lt;&gt;"",AE14,Z14)</f>
+        <v>-100.92</v>
       </c>
       <c r="AK14">
-        <f t="shared" si="6"/>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37">
+        <f>IF(AF14 &lt;&gt;"",AF14,AA14)</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>7.4</v>
+        <v>24.7</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="F15" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="G15" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="H15" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="I15" t="s">
-        <v>93</v>
-      </c>
-      <c r="P15">
-        <v>15.7</v>
-      </c>
-      <c r="Q15">
-        <v>0.7</v>
+        <v>110</v>
+      </c>
+      <c r="J15">
+        <v>4.2</v>
+      </c>
+      <c r="K15">
+        <v>1.4</v>
       </c>
       <c r="R15">
-        <f t="shared" si="1"/>
-        <v>15.7</v>
+        <f>MAX(J15,L15,N15,P15)</f>
+        <v>4.2</v>
       </c>
       <c r="S15">
-        <f t="shared" si="2"/>
-        <v>0.7</v>
+        <f>MAX(K15,M15,O15,Q15,0.3)</f>
+        <v>1.4</v>
       </c>
       <c r="T15">
-        <v>94.617592560000006</v>
+        <v>259.35640633000003</v>
       </c>
       <c r="U15">
-        <v>-72.045027079999997</v>
+        <v>-66.950702930000006</v>
       </c>
       <c r="V15">
-        <v>25.94</v>
+        <v>31.8</v>
       </c>
       <c r="W15">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="X15">
-        <v>-8.32</v>
+        <v>-21.83</v>
       </c>
       <c r="Y15">
-        <v>0.86</v>
+        <v>0.39</v>
       </c>
       <c r="Z15">
-        <v>72.02</v>
+        <v>-136.91</v>
       </c>
       <c r="AA15">
-        <v>1.06</v>
+        <v>0.42</v>
       </c>
       <c r="AB15">
         <v>1</v>
       </c>
-      <c r="AC15">
-        <v>-6.4</v>
-      </c>
-      <c r="AD15">
-        <v>0.9</v>
-      </c>
-      <c r="AE15">
-        <v>76.400000000000006</v>
-      </c>
-      <c r="AF15">
-        <v>0.8</v>
-      </c>
       <c r="AH15">
-        <f t="shared" si="3"/>
-        <v>-6.4</v>
+        <f>IF(AC15 &lt;&gt;"",AC15,X15)</f>
+        <v>-21.83</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="4"/>
-        <v>0.9</v>
+        <f>IF(AD15 &lt;&gt;"",AD15,Y15)</f>
+        <v>0.39</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="5"/>
-        <v>76.400000000000006</v>
+        <f>IF(AE15 &lt;&gt;"",AE15,Z15)</f>
+        <v>-136.91</v>
       </c>
       <c r="AK15">
-        <f t="shared" si="6"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37">
+        <f>IF(AF15 &lt;&gt;"",AF15,AA15)</f>
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="D16">
-        <v>31.1</v>
+        <v>44.3</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="G16" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="H16" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="I16" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="J16">
-        <v>3.1</v>
+        <v>-0.4</v>
       </c>
       <c r="K16">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="R16">
-        <f t="shared" si="1"/>
-        <v>3.1</v>
+        <f>MAX(J16,L16,N16,P16)</f>
+        <v>-0.4</v>
       </c>
       <c r="S16">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
+        <f>MAX(K16,M16,O16,Q16,0.3)</f>
+        <v>0.5</v>
       </c>
       <c r="T16">
-        <v>234.74000905</v>
+        <v>270.76419887999998</v>
       </c>
       <c r="U16">
-        <v>-57.707336400000003</v>
+        <v>-51.648800100000003</v>
       </c>
       <c r="V16">
-        <v>25.95</v>
+        <v>20.77</v>
       </c>
       <c r="W16">
-        <v>1.1399999999999999</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="X16">
-        <v>-53.98</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="Y16">
-        <v>1.27</v>
+        <v>0.6</v>
       </c>
       <c r="Z16">
-        <v>-106</v>
+        <v>-86.46</v>
       </c>
       <c r="AA16">
-        <v>1.21</v>
+        <v>0.36</v>
       </c>
       <c r="AB16">
         <v>1</v>
       </c>
       <c r="AH16">
-        <f t="shared" si="3"/>
-        <v>-53.98</v>
+        <f>IF(AC16 &lt;&gt;"",AC16,X16)</f>
+        <v>4.0199999999999996</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="4"/>
-        <v>1.27</v>
+        <f>IF(AD16 &lt;&gt;"",AD16,Y16)</f>
+        <v>0.6</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="5"/>
-        <v>-106</v>
+        <f>IF(AE16 &lt;&gt;"",AE16,Z16)</f>
+        <v>-86.46</v>
       </c>
       <c r="AK16">
-        <f t="shared" si="6"/>
-        <v>1.21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37">
+        <f>IF(AF16 &lt;&gt;"",AF16,AA16)</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>39</v>
+        <v>40.4</v>
       </c>
       <c r="E17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" t="s">
         <v>101</v>
       </c>
-      <c r="F17">
-        <v>11</v>
-      </c>
       <c r="G17" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="H17" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="I17" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="J17">
-        <v>-13</v>
+        <v>-7.8</v>
       </c>
       <c r="K17">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="R17">
-        <f t="shared" si="1"/>
-        <v>-13</v>
+        <f>MAX(J17,L17,N17,P17)</f>
+        <v>-7.8</v>
       </c>
       <c r="S17">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
+        <f>MAX(K17,M17,O17,Q17,0.3)</f>
+        <v>0.4</v>
       </c>
       <c r="T17">
-        <v>244.57467037999999</v>
+        <v>271.70785209000002</v>
       </c>
       <c r="U17">
-        <v>-28.613776040000001</v>
+        <v>-43.424962149999999</v>
       </c>
       <c r="V17">
-        <v>24.22</v>
+        <v>23.9</v>
       </c>
       <c r="W17">
-        <v>0.22</v>
+        <v>0.66</v>
       </c>
       <c r="X17">
-        <v>-31.19</v>
+        <v>10.73</v>
       </c>
       <c r="Y17">
-        <v>0.26</v>
+        <v>1.05</v>
       </c>
       <c r="Z17">
-        <v>-100.92</v>
+        <v>-106.59</v>
       </c>
       <c r="AA17">
-        <v>0.18</v>
+        <v>0.51</v>
       </c>
       <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>-1.7</v>
+      </c>
+      <c r="AD17">
         <v>1</v>
       </c>
+      <c r="AE17">
+        <v>-97.6</v>
+      </c>
+      <c r="AF17">
+        <v>1</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>217</v>
+      </c>
       <c r="AH17">
-        <f t="shared" si="3"/>
-        <v>-31.19</v>
+        <f>IF(AC17 &lt;&gt;"",AC17,X17)</f>
+        <v>-1.7</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="4"/>
-        <v>0.26</v>
+        <f>IF(AD17 &lt;&gt;"",AD17,Y17)</f>
+        <v>1</v>
       </c>
       <c r="AJ17">
-        <f t="shared" si="5"/>
-        <v>-100.92</v>
+        <f>IF(AE17 &lt;&gt;"",AE17,Z17)</f>
+        <v>-97.6</v>
       </c>
       <c r="AK17">
-        <f t="shared" si="6"/>
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:37">
+        <f>IF(AF17 &lt;&gt;"",AF17,AA17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18">
-        <v>24.7</v>
+        <v>22.8</v>
       </c>
       <c r="E18" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="F18" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="G18" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="H18" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="I18" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
         <v>4.2</v>
       </c>
-      <c r="K18">
-        <v>1.4</v>
-      </c>
       <c r="R18">
-        <f t="shared" si="1"/>
-        <v>4.2</v>
+        <f>AVERAGE(J18,N19)</f>
+        <v>2</v>
       </c>
       <c r="S18">
-        <f t="shared" si="2"/>
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="T18">
-        <v>259.35640633000003</v>
+        <v>281.36189990999998</v>
       </c>
       <c r="U18">
-        <v>-66.950702930000006</v>
+        <v>-64.870897729999996</v>
       </c>
       <c r="V18">
-        <v>31.8</v>
+        <v>35.03</v>
       </c>
       <c r="W18">
-        <v>0.5</v>
+        <v>0.19</v>
       </c>
       <c r="X18">
-        <v>-21.83</v>
+        <v>32.4</v>
       </c>
       <c r="Y18">
-        <v>0.39</v>
+        <v>0.17</v>
       </c>
       <c r="Z18">
-        <v>-136.91</v>
+        <v>-149.47999999999999</v>
       </c>
       <c r="AA18">
-        <v>0.42</v>
+        <v>0.17</v>
       </c>
       <c r="AB18">
         <v>1</v>
       </c>
       <c r="AH18">
-        <f t="shared" si="3"/>
-        <v>-21.83</v>
+        <f>IF(AC18 &lt;&gt;"",AC18,X18)</f>
+        <v>32.4</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="4"/>
-        <v>0.39</v>
+        <f>IF(AD18 &lt;&gt;"",AD18,Y18)</f>
+        <v>0.17</v>
       </c>
       <c r="AJ18">
-        <f t="shared" si="5"/>
-        <v>-136.91</v>
+        <f>IF(AE18 &lt;&gt;"",AE18,Z18)</f>
+        <v>-149.47999999999999</v>
       </c>
       <c r="AK18">
-        <f t="shared" si="6"/>
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:37">
+        <f>IF(AF18 &lt;&gt;"",AF18,AA18)</f>
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D19">
-        <v>44.3</v>
+        <v>46.8</v>
       </c>
       <c r="E19" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="F19" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="H19" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="I19" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="J19">
-        <v>-0.4</v>
+        <v>-4.2</v>
       </c>
       <c r="K19">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="R19">
-        <f t="shared" si="1"/>
-        <v>-0.4</v>
+        <f>MAX(J19,L19,N19,P19)</f>
+        <v>-4.2</v>
       </c>
       <c r="S19">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f>MAX(K19,M19,O19,Q19,0.3)</f>
+        <v>0.3</v>
       </c>
       <c r="T19">
-        <v>270.76419887999998</v>
+        <v>283.27441333000002</v>
       </c>
       <c r="U19">
-        <v>-51.648800100000003</v>
+        <v>-50.180319009999998</v>
       </c>
       <c r="V19">
-        <v>20.77</v>
+        <v>19.420000000000002</v>
       </c>
       <c r="W19">
-        <v>0.56000000000000005</v>
+        <v>0.98</v>
       </c>
       <c r="X19">
-        <v>4.0199999999999996</v>
+        <v>17.64</v>
       </c>
       <c r="Y19">
-        <v>0.6</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="Z19">
-        <v>-86.46</v>
+        <v>-83.63</v>
       </c>
       <c r="AA19">
-        <v>0.36</v>
+        <v>0.76</v>
       </c>
       <c r="AB19">
         <v>1</v>
       </c>
       <c r="AH19">
-        <f t="shared" si="3"/>
-        <v>4.0199999999999996</v>
+        <f>IF(AC19 &lt;&gt;"",AC19,X19)</f>
+        <v>17.64</v>
       </c>
       <c r="AI19">
-        <f t="shared" si="4"/>
-        <v>0.6</v>
+        <f>IF(AD19 &lt;&gt;"",AD19,Y19)</f>
+        <v>1.1299999999999999</v>
       </c>
       <c r="AJ19">
-        <f t="shared" si="5"/>
-        <v>-86.46</v>
+        <f>IF(AE19 &lt;&gt;"",AE19,Z19)</f>
+        <v>-83.63</v>
       </c>
       <c r="AK19">
-        <f t="shared" si="6"/>
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:37">
+        <f>IF(AF19 &lt;&gt;"",AF19,AA19)</f>
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>117</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B20"/>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D20">
-        <v>40.4</v>
+        <v>41.3</v>
       </c>
       <c r="E20" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="F20" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="G20" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="H20" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="I20" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="J20">
-        <v>-7.8</v>
+        <v>13</v>
       </c>
       <c r="K20">
+        <v>4.2</v>
+      </c>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20">
+        <f>MAX(J20,L20,N20,P20)</f>
+        <v>13</v>
+      </c>
+      <c r="S20">
+        <f>MAX(K20,M20,O20,Q20,0.3)</f>
+        <v>4.2</v>
+      </c>
+      <c r="T20">
+        <v>290.71325236000001</v>
+      </c>
+      <c r="U20">
+        <v>-54.423728769999997</v>
+      </c>
+      <c r="V20">
+        <v>20.74</v>
+      </c>
+      <c r="W20">
+        <v>0.21</v>
+      </c>
+      <c r="X20">
+        <v>25.57</v>
+      </c>
+      <c r="Y20">
+        <v>0.21</v>
+      </c>
+      <c r="Z20">
+        <v>-82.71</v>
+      </c>
+      <c r="AA20">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20">
+        <f>IF(AC20 &lt;&gt;"",AC20,X20)</f>
+        <v>25.57</v>
+      </c>
+      <c r="AI20">
+        <f>IF(AD20 &lt;&gt;"",AD20,Y20)</f>
+        <v>0.21</v>
+      </c>
+      <c r="AJ20">
+        <f>IF(AE20 &lt;&gt;"",AE20,Z20)</f>
+        <v>-82.71</v>
+      </c>
+      <c r="AK20">
+        <f>IF(AF20 &lt;&gt;"",AF20,AA20)</f>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21">
+        <v>44.4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" t="s">
+        <v>147</v>
+      </c>
+      <c r="H21" t="s">
+        <v>148</v>
+      </c>
+      <c r="I21" t="s">
+        <v>149</v>
+      </c>
+      <c r="J21">
+        <v>0.1</v>
+      </c>
+      <c r="K21">
         <v>0.4</v>
       </c>
-      <c r="R20">
-        <f t="shared" si="1"/>
-        <v>-7.8</v>
-      </c>
-      <c r="S20">
-        <f t="shared" si="2"/>
+      <c r="R21">
+        <f>MAX(J21,L21,N21,P21)</f>
+        <v>0.1</v>
+      </c>
+      <c r="S21">
+        <f>MAX(K21,M21,O21,Q21,0.3)</f>
         <v>0.4</v>
       </c>
-      <c r="T20">
-        <v>271.70785209000002</v>
-      </c>
-      <c r="U20">
-        <v>-43.424962149999999</v>
-      </c>
-      <c r="V20">
-        <v>23.9</v>
-      </c>
-      <c r="W20">
-        <v>0.66</v>
-      </c>
-      <c r="X20">
-        <v>10.73</v>
-      </c>
-      <c r="Y20">
-        <v>1.05</v>
-      </c>
-      <c r="Z20">
-        <v>-106.59</v>
-      </c>
-      <c r="AA20">
-        <v>0.51</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>-1.7</v>
-      </c>
-      <c r="AD20">
-        <v>1</v>
-      </c>
-      <c r="AE20">
-        <v>-97.6</v>
-      </c>
-      <c r="AF20">
-        <v>1</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>218</v>
-      </c>
-      <c r="AH20">
-        <f t="shared" si="3"/>
-        <v>-1.7</v>
-      </c>
-      <c r="AI20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AJ20">
-        <f t="shared" si="5"/>
-        <v>-97.6</v>
-      </c>
-      <c r="AK20">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:37">
-      <c r="A21" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21">
-        <v>22.8</v>
-      </c>
-      <c r="E21" t="s">
-        <v>123</v>
-      </c>
-      <c r="F21" t="s">
-        <v>124</v>
-      </c>
-      <c r="G21" t="s">
-        <v>125</v>
-      </c>
-      <c r="H21" t="s">
-        <v>126</v>
-      </c>
-      <c r="I21" t="s">
-        <v>127</v>
-      </c>
-      <c r="J21">
-        <v>2</v>
-      </c>
-      <c r="K21">
-        <v>4.2</v>
-      </c>
-      <c r="R21">
-        <f>AVERAGE(J21,N22)</f>
-        <v>1.5</v>
-      </c>
-      <c r="S21">
-        <v>3</v>
-      </c>
       <c r="T21">
-        <v>281.36189990999998</v>
+        <v>290.74549532999998</v>
       </c>
       <c r="U21">
-        <v>-64.870897729999996</v>
+        <v>-54.537849029999997</v>
       </c>
       <c r="V21">
-        <v>35.03</v>
+        <v>19.3</v>
       </c>
       <c r="W21">
-        <v>0.19</v>
+        <v>0.65</v>
       </c>
       <c r="X21">
-        <v>32.4</v>
+        <v>23.99</v>
       </c>
       <c r="Y21">
-        <v>0.17</v>
+        <v>0.65</v>
       </c>
       <c r="Z21">
-        <v>-149.47999999999999</v>
+        <v>-81.819999999999993</v>
       </c>
       <c r="AA21">
-        <v>0.17</v>
+        <v>0.44</v>
       </c>
       <c r="AB21">
         <v>1</v>
       </c>
       <c r="AH21">
-        <f t="shared" si="3"/>
-        <v>32.4</v>
+        <f>IF(AC21 &lt;&gt;"",AC21,X21)</f>
+        <v>23.99</v>
       </c>
       <c r="AI21">
-        <f t="shared" si="4"/>
-        <v>0.17</v>
+        <f>IF(AD21 &lt;&gt;"",AD21,Y21)</f>
+        <v>0.65</v>
       </c>
       <c r="AJ21">
-        <f t="shared" si="5"/>
-        <v>-149.47999999999999</v>
+        <f>IF(AE21 &lt;&gt;"",AE21,Z21)</f>
+        <v>-81.819999999999993</v>
       </c>
       <c r="AK21">
-        <f t="shared" si="6"/>
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:37" s="1" customFormat="1">
-      <c r="A22" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D22" s="1">
-        <v>22.8</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="N22" s="1">
+        <f>IF(AF21 &lt;&gt;"",AF21,AA21)</f>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22">
+        <v>8.5</v>
+      </c>
+      <c r="E22">
+        <v>1.7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" t="s">
+        <v>153</v>
+      </c>
+      <c r="H22" t="s">
+        <v>148</v>
+      </c>
+      <c r="I22" t="s">
+        <v>154</v>
+      </c>
+      <c r="L22">
+        <v>-3.7269999999999999</v>
+      </c>
+      <c r="M22">
+        <v>0.04</v>
+      </c>
+      <c r="R22">
+        <f>AVERAGE(L22:L23)</f>
+        <v>-3.9299999999999997</v>
+      </c>
+      <c r="S22">
+        <f>MAX(K22,M22,O22,Q22,0.3)</f>
+        <v>0.3</v>
+      </c>
+      <c r="T22">
+        <v>310.46238469000002</v>
+      </c>
+      <c r="U22">
+        <v>-32.434341480000001</v>
+      </c>
+      <c r="V22">
+        <v>93.5</v>
+      </c>
+      <c r="W22">
+        <v>3.67</v>
+      </c>
+      <c r="X22">
+        <v>270.45</v>
+      </c>
+      <c r="Y22">
+        <v>4.63</v>
+      </c>
+      <c r="Z22">
+        <v>-365.6</v>
+      </c>
+      <c r="AA22">
+        <v>3.5</v>
+      </c>
+      <c r="AB22">
         <v>1</v>
       </c>
-      <c r="O22" s="1">
-        <v>3</v>
-      </c>
-      <c r="R22" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S22" s="1">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="AB22" s="1">
-        <v>0</v>
-      </c>
       <c r="AH22">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>IF(AC22 &lt;&gt;"",AC22,X22)</f>
+        <v>270.45</v>
       </c>
       <c r="AI22">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(AD22 &lt;&gt;"",AD22,Y22)</f>
+        <v>4.63</v>
       </c>
       <c r="AJ22">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>IF(AE22 &lt;&gt;"",AE22,Z22)</f>
+        <v>-365.6</v>
       </c>
       <c r="AK22">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:37">
+        <f>IF(AF22 &lt;&gt;"",AF22,AA22)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>133</v>
+        <v>159</v>
+      </c>
+      <c r="B23" t="s">
+        <v>195</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="D23">
-        <v>46.8</v>
-      </c>
-      <c r="E23" t="s">
-        <v>124</v>
+        <v>7.7</v>
+      </c>
+      <c r="E23">
+        <v>1.7</v>
       </c>
       <c r="F23" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="G23" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="H23" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="I23" t="s">
-        <v>136</v>
-      </c>
-      <c r="J23">
-        <v>-4.2</v>
-      </c>
-      <c r="K23">
-        <v>0.2</v>
+        <v>164</v>
+      </c>
+      <c r="L23">
+        <v>-4.133</v>
+      </c>
+      <c r="M23">
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="R23">
-        <f t="shared" si="1"/>
-        <v>-4.2</v>
+        <f>MAX(J23,L23,N23,P23)</f>
+        <v>-4.133</v>
       </c>
       <c r="S23">
-        <f t="shared" si="2"/>
+        <f>MAX(K23,M23,O23,Q23,0.3)</f>
         <v>0.3</v>
       </c>
       <c r="T23">
-        <v>283.27441333000002</v>
+        <v>311.28891777000001</v>
       </c>
       <c r="U23">
-        <v>-50.180319009999998</v>
+        <v>-31.34002422</v>
       </c>
       <c r="V23">
-        <v>19.420000000000002</v>
+        <v>100.91</v>
       </c>
       <c r="W23">
-        <v>0.98</v>
+        <v>1.06</v>
       </c>
       <c r="X23">
-        <v>17.64</v>
+        <v>279.95999999999998</v>
       </c>
       <c r="Y23">
-        <v>1.1299999999999999</v>
+        <v>1.26</v>
       </c>
       <c r="Z23">
-        <v>-83.63</v>
+        <v>-360.61</v>
       </c>
       <c r="AA23">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="AB23">
         <v>1</v>
       </c>
       <c r="AH23">
-        <f t="shared" si="3"/>
-        <v>17.64</v>
+        <f>IF(AC23 &lt;&gt;"",AC23,X23)</f>
+        <v>279.95999999999998</v>
       </c>
       <c r="AI23">
-        <f t="shared" si="4"/>
-        <v>1.1299999999999999</v>
+        <f>IF(AD23 &lt;&gt;"",AD23,Y23)</f>
+        <v>1.26</v>
       </c>
       <c r="AJ23">
-        <f t="shared" si="5"/>
-        <v>-83.63</v>
+        <f>IF(AE23 &lt;&gt;"",AE23,Z23)</f>
+        <v>-360.61</v>
       </c>
       <c r="AK23">
-        <f t="shared" si="6"/>
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37">
+        <f>IF(AF23 &lt;&gt;"",AF23,AA23)</f>
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="D24">
-        <v>41.3</v>
-      </c>
-      <c r="E24" t="s">
-        <v>138</v>
+        <v>32.299999999999997</v>
+      </c>
+      <c r="E24">
+        <v>18.899999999999999</v>
       </c>
       <c r="F24" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="G24" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="H24" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="I24" t="s">
-        <v>142</v>
-      </c>
-      <c r="J24">
-        <v>13</v>
-      </c>
-      <c r="K24">
-        <v>4.2</v>
+        <v>170</v>
+      </c>
+      <c r="N24">
+        <v>-4.5</v>
+      </c>
+      <c r="O24">
+        <v>2</v>
       </c>
       <c r="R24">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f>AVERAGE(N24,N25)</f>
+        <v>-4.5</v>
       </c>
       <c r="S24">
-        <f t="shared" si="2"/>
-        <v>4.2</v>
+        <f>MAX(K24,M24,O24,Q24,0.3)</f>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>290.71325236000001</v>
+        <v>313.94849201</v>
       </c>
       <c r="U24">
-        <v>-54.423728769999997</v>
+        <v>-17.114026169999999</v>
       </c>
       <c r="V24">
-        <v>20.74</v>
+        <v>21.9</v>
       </c>
       <c r="W24">
-        <v>0.21</v>
+        <v>0.77</v>
       </c>
       <c r="X24">
-        <v>25.57</v>
+        <v>58.81</v>
       </c>
       <c r="Y24">
-        <v>0.21</v>
+        <v>0.83</v>
       </c>
       <c r="Z24">
-        <v>-82.71</v>
+        <v>-62.83</v>
       </c>
       <c r="AA24">
-        <v>0.14000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="AB24">
         <v>1</v>
       </c>
       <c r="AH24">
-        <f t="shared" si="3"/>
-        <v>25.57</v>
+        <f>IF(AC24 &lt;&gt;"",AC24,X24)</f>
+        <v>58.81</v>
       </c>
       <c r="AI24">
-        <f t="shared" si="4"/>
-        <v>0.21</v>
+        <f>IF(AD24 &lt;&gt;"",AD24,Y24)</f>
+        <v>0.83</v>
       </c>
       <c r="AJ24">
-        <f t="shared" si="5"/>
-        <v>-82.71</v>
+        <f>IF(AE24 &lt;&gt;"",AE24,Z24)</f>
+        <v>-62.83</v>
       </c>
       <c r="AK24">
-        <f t="shared" si="6"/>
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:37">
+        <f>IF(AF24 &lt;&gt;"",AF24,AA24)</f>
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>143</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="B25"/>
       <c r="C25" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="D25">
-        <v>44.4</v>
-      </c>
-      <c r="E25" t="s">
-        <v>145</v>
+        <v>10.7</v>
+      </c>
+      <c r="E25">
+        <v>2.4</v>
       </c>
       <c r="F25" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="G25" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="H25" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="I25" t="s">
-        <v>149</v>
-      </c>
-      <c r="J25">
-        <v>0.1</v>
-      </c>
-      <c r="K25">
-        <v>0.4</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25">
+        <v>3.0870000000000002</v>
+      </c>
+      <c r="M25">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
       <c r="R25">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
+        <f>AVERAGE(L25:L26)</f>
+        <v>11.856</v>
       </c>
       <c r="S25">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
+        <f>MAX(K25,M25,O25,Q25,0.3)</f>
+        <v>0.3</v>
       </c>
       <c r="T25">
-        <v>290.74549532999998</v>
+        <v>341.24098913</v>
       </c>
       <c r="U25">
-        <v>-54.537849029999997</v>
+        <v>-33.250184750000003</v>
       </c>
       <c r="V25">
-        <v>19.3</v>
+        <v>42.84</v>
       </c>
       <c r="W25">
-        <v>0.65</v>
+        <v>3.61</v>
       </c>
       <c r="X25">
-        <v>23.99</v>
+        <v>184.76</v>
       </c>
       <c r="Y25">
-        <v>0.65</v>
+        <v>2.64</v>
       </c>
       <c r="Z25">
-        <v>-81.819999999999993</v>
+        <v>-119.76</v>
       </c>
       <c r="AA25">
-        <v>0.44</v>
+        <v>2.31</v>
       </c>
       <c r="AB25">
         <v>1</v>
       </c>
+      <c r="AC25">
+        <v>178.7</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25">
+        <v>-123</v>
+      </c>
+      <c r="AF25">
+        <v>2</v>
+      </c>
+      <c r="AG25"/>
       <c r="AH25">
-        <f t="shared" si="3"/>
-        <v>23.99</v>
+        <f>IF(AC25 &lt;&gt;"",AC25,X25)</f>
+        <v>178.7</v>
       </c>
       <c r="AI25">
-        <f t="shared" si="4"/>
-        <v>0.65</v>
+        <f>IF(AD25 &lt;&gt;"",AD25,Y25)</f>
+        <v>1</v>
       </c>
       <c r="AJ25">
-        <f t="shared" si="5"/>
-        <v>-81.819999999999993</v>
+        <f>IF(AE25 &lt;&gt;"",AE25,Z25)</f>
+        <v>-123</v>
       </c>
       <c r="AK25">
-        <f t="shared" si="6"/>
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:37">
-      <c r="A26" t="s">
-        <v>150</v>
-      </c>
-      <c r="C26" t="s">
-        <v>151</v>
-      </c>
-      <c r="D26">
-        <v>8.5</v>
-      </c>
-      <c r="E26">
-        <v>1.7</v>
-      </c>
-      <c r="F26" t="s">
-        <v>152</v>
-      </c>
-      <c r="G26" t="s">
-        <v>153</v>
-      </c>
-      <c r="H26" t="s">
-        <v>148</v>
-      </c>
-      <c r="I26" t="s">
-        <v>154</v>
-      </c>
-      <c r="L26">
-        <v>-3.7269999999999999</v>
-      </c>
-      <c r="M26">
-        <v>0.04</v>
-      </c>
-      <c r="R26">
-        <f>AVERAGE(L26:L27)</f>
-        <v>-4.4264999999999999</v>
-      </c>
-      <c r="S26">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="T26">
-        <v>310.46238469000002</v>
-      </c>
-      <c r="U26">
-        <v>-32.434341480000001</v>
-      </c>
-      <c r="V26">
-        <v>93.5</v>
-      </c>
-      <c r="W26">
-        <v>3.67</v>
-      </c>
-      <c r="X26">
-        <v>270.45</v>
-      </c>
-      <c r="Y26">
-        <v>4.63</v>
-      </c>
-      <c r="Z26">
-        <v>-365.6</v>
-      </c>
-      <c r="AA26">
-        <v>3.5</v>
-      </c>
-      <c r="AB26">
+        <f>IF(AF25 &lt;&gt;"",AF25,AA25)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1">
+        <v>20.625</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1">
+        <f>MAX(J26,L26,N26,P26)</f>
+        <v>20.625</v>
+      </c>
+      <c r="S26" s="1">
+        <f>MAX(K26,M26,O26,Q26,0.3)</f>
+        <v>0.5</v>
+      </c>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26">
+        <f>IF(AC26 &lt;&gt;"",AC26,X26)</f>
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <f>IF(AD26 &lt;&gt;"",AD26,Y26)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <f>IF(AE26 &lt;&gt;"",AE26,Z26)</f>
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <f>IF(AF26 &lt;&gt;"",AF26,AA26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="1">
+        <v>22.8</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1">
         <v>1</v>
       </c>
-      <c r="AH26">
-        <f t="shared" si="3"/>
-        <v>270.45</v>
-      </c>
-      <c r="AI26">
-        <f t="shared" si="4"/>
-        <v>4.63</v>
-      </c>
-      <c r="AJ26">
-        <f t="shared" si="5"/>
-        <v>-365.6</v>
-      </c>
-      <c r="AK26">
-        <f t="shared" si="6"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:37" s="1" customFormat="1">
-      <c r="A27" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D27" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="L27" s="1">
-        <v>-5.1260000000000003</v>
-      </c>
-      <c r="M27" s="1">
-        <v>0.05</v>
-      </c>
+      <c r="O27" s="1">
+        <v>3</v>
+      </c>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
       <c r="R27" s="1">
-        <f>R26</f>
-        <v>-4.4264999999999999</v>
+        <f>MAX(J27,L27,N27,P27)</f>
+        <v>1</v>
       </c>
       <c r="S27" s="1">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
+        <f>MAX(K27,M27,O27,Q27,0.3)</f>
+        <v>3</v>
+      </c>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
       <c r="AB27" s="1">
         <v>0</v>
       </c>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
       <c r="AH27">
-        <f t="shared" si="3"/>
+        <f>IF(AC27 &lt;&gt;"",AC27,X27)</f>
         <v>0</v>
       </c>
       <c r="AI27">
-        <f t="shared" si="4"/>
+        <f>IF(AD27 &lt;&gt;"",AD27,Y27)</f>
         <v>0</v>
       </c>
       <c r="AJ27">
-        <f t="shared" si="5"/>
+        <f>IF(AE27 &lt;&gt;"",AE27,Z27)</f>
         <v>0</v>
       </c>
       <c r="AK27">
-        <f t="shared" si="6"/>
+        <f>IF(AF27 &lt;&gt;"",AF27,AA27)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:37">
-      <c r="A28" t="s">
-        <v>159</v>
-      </c>
-      <c r="B28" t="s">
-        <v>196</v>
-      </c>
-      <c r="C28" t="s">
-        <v>160</v>
-      </c>
-      <c r="D28">
-        <v>7.7</v>
-      </c>
-      <c r="E28">
+    <row r="28" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="E28" s="1">
         <v>1.7</v>
       </c>
-      <c r="F28" t="s">
-        <v>161</v>
-      </c>
-      <c r="G28" t="s">
-        <v>162</v>
-      </c>
-      <c r="H28" t="s">
-        <v>163</v>
-      </c>
-      <c r="I28" t="s">
-        <v>164</v>
-      </c>
-      <c r="L28">
-        <v>-4.133</v>
-      </c>
-      <c r="M28">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="1"/>
-        <v>-4.133</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="2"/>
+      <c r="F28" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="L28" s="1">
+        <v>-5.1260000000000003</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="R28" s="1">
+        <f>R27</f>
+        <v>1</v>
+      </c>
+      <c r="S28" s="1">
+        <f>MAX(K28,M28,O28,Q28,0.3)</f>
         <v>0.3</v>
       </c>
-      <c r="T28">
-        <v>311.28891777000001</v>
-      </c>
-      <c r="U28">
-        <v>-31.34002422</v>
-      </c>
-      <c r="V28">
-        <v>100.91</v>
-      </c>
-      <c r="W28">
-        <v>1.06</v>
-      </c>
-      <c r="X28">
-        <v>279.95999999999998</v>
-      </c>
-      <c r="Y28">
-        <v>1.26</v>
-      </c>
-      <c r="Z28">
-        <v>-360.61</v>
-      </c>
-      <c r="AA28">
-        <v>0.73</v>
-      </c>
-      <c r="AB28">
-        <v>1</v>
+      <c r="AB28" s="1">
+        <v>0</v>
       </c>
       <c r="AH28">
-        <f t="shared" si="3"/>
-        <v>279.95999999999998</v>
+        <f>IF(AC28 &lt;&gt;"",AC28,X28)</f>
+        <v>0</v>
       </c>
       <c r="AI28">
-        <f t="shared" si="4"/>
-        <v>1.26</v>
+        <f>IF(AD28 &lt;&gt;"",AD28,Y28)</f>
+        <v>0</v>
       </c>
       <c r="AJ28">
-        <f t="shared" si="5"/>
-        <v>-360.61</v>
+        <f>IF(AE28 &lt;&gt;"",AE28,Z28)</f>
+        <v>0</v>
       </c>
       <c r="AK28">
-        <f t="shared" si="6"/>
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:37">
-      <c r="A29" t="s">
-        <v>165</v>
-      </c>
-      <c r="C29" t="s">
-        <v>166</v>
-      </c>
-      <c r="D29">
+        <f>IF(AF28 &lt;&gt;"",AF28,AA28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" s="1">
         <v>32.299999999999997</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>18.899999999999999</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G29" t="s">
-        <v>168</v>
-      </c>
-      <c r="H29" t="s">
-        <v>169</v>
-      </c>
-      <c r="I29" t="s">
-        <v>170</v>
-      </c>
-      <c r="N29">
-        <v>-4.5</v>
-      </c>
-      <c r="O29">
-        <v>2</v>
-      </c>
-      <c r="R29">
-        <f>AVERAGE(N29,N30)</f>
-        <v>-5.7</v>
-      </c>
-      <c r="S29">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="T29">
-        <v>313.94849201</v>
-      </c>
-      <c r="U29">
-        <v>-17.114026169999999</v>
-      </c>
-      <c r="V29">
-        <v>21.9</v>
-      </c>
-      <c r="W29">
-        <v>0.77</v>
-      </c>
-      <c r="X29">
-        <v>58.81</v>
-      </c>
-      <c r="Y29">
-        <v>0.83</v>
-      </c>
-      <c r="Z29">
-        <v>-62.83</v>
-      </c>
-      <c r="AA29">
-        <v>0.73</v>
-      </c>
-      <c r="AB29">
-        <v>1</v>
-      </c>
+      <c r="G29" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1">
+        <v>-6.9</v>
+      </c>
+      <c r="O29" s="1">
+        <v>3</v>
+      </c>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1">
+        <f>MAX(J29,L29,N29,P29)</f>
+        <v>-6.9</v>
+      </c>
+      <c r="S29" s="1">
+        <f>MAX(K29,M29,O29,Q29,0.3)</f>
+        <v>3</v>
+      </c>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
       <c r="AH29">
-        <f t="shared" si="3"/>
-        <v>58.81</v>
+        <f>IF(AC29 &lt;&gt;"",AC29,X29)</f>
+        <v>0</v>
       </c>
       <c r="AI29">
-        <f t="shared" si="4"/>
-        <v>0.83</v>
+        <f>IF(AD29 &lt;&gt;"",AD29,Y29)</f>
+        <v>0</v>
       </c>
       <c r="AJ29">
-        <f t="shared" si="5"/>
-        <v>-62.83</v>
+        <f>IF(AE29 &lt;&gt;"",AE29,Z29)</f>
+        <v>0</v>
       </c>
       <c r="AK29">
-        <f t="shared" si="6"/>
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:37" s="1" customFormat="1">
+        <f>IF(AF29 &lt;&gt;"",AF29,AA29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>172</v>
+        <v>32</v>
       </c>
       <c r="D30" s="1">
-        <v>32.299999999999997</v>
+        <v>10.7</v>
       </c>
       <c r="E30" s="1">
-        <v>18.899999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="N30" s="1">
+        <v>184</v>
+      </c>
+      <c r="L30" s="1">
+        <v>2.0310000000000001</v>
+      </c>
+      <c r="M30" s="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="R30" s="1">
+        <f>R29</f>
         <v>-6.9</v>
       </c>
-      <c r="O30" s="1">
-        <v>3</v>
-      </c>
-      <c r="R30" s="1">
-        <f t="shared" si="1"/>
-        <v>-6.9</v>
-      </c>
       <c r="S30" s="1">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f>MAX(K30,M30,O30,Q30,0.3)</f>
+        <v>0.3</v>
       </c>
       <c r="AB30" s="1">
         <v>0</v>
       </c>
       <c r="AH30">
-        <f t="shared" si="3"/>
+        <f>IF(AC30 &lt;&gt;"",AC30,X30)</f>
         <v>0</v>
       </c>
       <c r="AI30">
-        <f t="shared" si="4"/>
+        <f>IF(AD30 &lt;&gt;"",AD30,Y30)</f>
         <v>0</v>
       </c>
       <c r="AJ30">
-        <f t="shared" si="5"/>
+        <f>IF(AE30 &lt;&gt;"",AE30,Z30)</f>
         <v>0</v>
       </c>
       <c r="AK30">
-        <f t="shared" si="6"/>
+        <f>IF(AF30 &lt;&gt;"",AF30,AA30)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:37">
-      <c r="A31" t="s">
-        <v>176</v>
-      </c>
-      <c r="C31" t="s">
+    <row r="31" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D31">
-        <v>10.7</v>
-      </c>
-      <c r="E31">
-        <v>2.4</v>
-      </c>
-      <c r="F31" t="s">
-        <v>177</v>
-      </c>
-      <c r="G31" t="s">
-        <v>178</v>
-      </c>
-      <c r="H31" t="s">
-        <v>179</v>
-      </c>
-      <c r="I31" t="s">
-        <v>180</v>
-      </c>
-      <c r="L31">
-        <v>3.0870000000000002</v>
-      </c>
-      <c r="M31">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="R31">
-        <f>AVERAGE(L31:L32)</f>
-        <v>2.5590000000000002</v>
-      </c>
-      <c r="S31">
-        <f t="shared" si="2"/>
+      <c r="D31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="1">
+        <v>19.8</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L31" s="1">
+        <v>5.9610000000000003</v>
+      </c>
+      <c r="M31" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="R31" s="1">
+        <f>MAX(J31,L31,N31,P31)</f>
+        <v>5.9610000000000003</v>
+      </c>
+      <c r="S31" s="1">
+        <f>MAX(K31,M31,O31,Q31,0.3)</f>
         <v>0.3</v>
       </c>
-      <c r="T31">
-        <v>341.24098913</v>
-      </c>
-      <c r="U31">
-        <v>-33.250184750000003</v>
-      </c>
-      <c r="V31">
-        <v>42.84</v>
-      </c>
-      <c r="W31">
-        <v>3.61</v>
-      </c>
-      <c r="X31">
-        <v>184.76</v>
-      </c>
-      <c r="Y31">
-        <v>2.64</v>
-      </c>
-      <c r="Z31">
-        <v>-119.76</v>
-      </c>
-      <c r="AA31">
-        <v>2.31</v>
-      </c>
-      <c r="AB31">
-        <v>1</v>
-      </c>
-      <c r="AC31">
-        <v>178.7</v>
-      </c>
-      <c r="AD31">
-        <v>1</v>
-      </c>
-      <c r="AE31">
-        <v>-123</v>
-      </c>
-      <c r="AF31">
-        <v>2</v>
+      <c r="T31" s="1">
+        <v>36.871667449999997</v>
+      </c>
+      <c r="U31" s="1">
+        <v>30.97367393</v>
+      </c>
+      <c r="V31" s="1">
+        <v>25.03</v>
+      </c>
+      <c r="W31" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="X31" s="1">
+        <v>79.78</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>2.56</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>-70.02</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>0</v>
       </c>
       <c r="AH31">
-        <f t="shared" si="3"/>
-        <v>178.7</v>
+        <f>IF(AC31 &lt;&gt;"",AC31,X31)</f>
+        <v>79.78</v>
       </c>
       <c r="AI31">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>IF(AD31 &lt;&gt;"",AD31,Y31)</f>
+        <v>2.56</v>
       </c>
       <c r="AJ31">
-        <f t="shared" si="5"/>
-        <v>-123</v>
+        <f>IF(AE31 &lt;&gt;"",AE31,Z31)</f>
+        <v>-70.02</v>
       </c>
       <c r="AK31">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:37" s="1" customFormat="1">
+        <f>IF(AF31 &lt;&gt;"",AF31,AA31)</f>
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>181</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="1">
-        <v>10.7</v>
-      </c>
-      <c r="E32" s="1">
-        <v>2.4</v>
+        <v>12</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="L32" s="1">
-        <v>2.0310000000000001</v>
-      </c>
-      <c r="M32" s="1">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="R32" s="1">
-        <f>R31</f>
-        <v>2.5590000000000002</v>
-      </c>
-      <c r="S32" s="1">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
+        <v>80</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1">
+        <v>110.8717676</v>
+      </c>
+      <c r="U32" s="1">
+        <v>66.779274490000006</v>
+      </c>
+      <c r="V32" s="1">
+        <v>7.18</v>
+      </c>
+      <c r="W32" s="1">
+        <v>2.19</v>
+      </c>
+      <c r="X32" s="1">
+        <v>122.68</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>1.55</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>-128.13999999999999</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>1.74</v>
       </c>
       <c r="AB32" s="1">
         <v>0</v>
       </c>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
       <c r="AH32">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>IF(AC32 &lt;&gt;"",AC32,X32)</f>
+        <v>122.68</v>
       </c>
       <c r="AI32">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(AD32 &lt;&gt;"",AD32,Y32)</f>
+        <v>1.55</v>
       </c>
       <c r="AJ32">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>IF(AE32 &lt;&gt;"",AE32,Z32)</f>
+        <v>-128.13999999999999</v>
       </c>
       <c r="AK32">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <f>IF(AF32 &lt;&gt;"",AF32,AA32)</f>
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>185</v>
       </c>
@@ -3807,27 +3939,35 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>191</v>
       </c>
       <c r="C36" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>201</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A3:AK32">
+    <sortCondition ref="T3:T32"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3835,13 +3975,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3864,37 +4004,37 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I1" t="s">
         <v>202</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K1" t="s">
+        <v>208</v>
+      </c>
+      <c r="L1" t="s">
         <v>203</v>
       </c>
-      <c r="J1" t="s">
-        <v>208</v>
-      </c>
-      <c r="K1" t="s">
-        <v>209</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>204</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>205</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>211</v>
+      </c>
+      <c r="P1" t="s">
         <v>206</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>212</v>
       </c>
-      <c r="P1" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3947,7 +4087,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -4000,7 +4140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -4053,7 +4193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -4106,7 +4246,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -4159,7 +4299,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -4212,7 +4352,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -4265,7 +4405,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -4318,9 +4458,9 @@
         <v>5.71</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B10" t="s">
         <v>81</v>
@@ -4371,7 +4511,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -4424,7 +4564,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>94</v>
       </c>
@@ -4477,7 +4617,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>100</v>
       </c>
@@ -4530,7 +4670,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>105</v>
       </c>
@@ -4583,7 +4723,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>111</v>
       </c>
@@ -4636,7 +4776,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>122</v>
       </c>
@@ -4689,7 +4829,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>133</v>
       </c>
@@ -4742,7 +4882,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>137</v>
       </c>
@@ -4795,7 +4935,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>143</v>
       </c>
@@ -4848,7 +4988,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>150</v>
       </c>
@@ -4901,7 +5041,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>159</v>
       </c>
@@ -4954,7 +5094,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>165</v>
       </c>
@@ -5007,7 +5147,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>176</v>
       </c>
@@ -5062,10 +5202,428 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>6.5</v>
+      </c>
+      <c r="C2">
+        <v>3.5</v>
+      </c>
+      <c r="D2">
+        <v>1.7084359200000001</v>
+      </c>
+      <c r="E2">
+        <v>-23.107425339999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>5.7</v>
+      </c>
+      <c r="C3">
+        <v>0.3</v>
+      </c>
+      <c r="D3">
+        <v>34.352836869999997</v>
+      </c>
+      <c r="E3">
+        <v>28.74194915</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>4.8</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <v>34.355119790000003</v>
+      </c>
+      <c r="E4">
+        <v>28.74522039</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>6.3520000000000003</v>
+      </c>
+      <c r="C5">
+        <v>0.3</v>
+      </c>
+      <c r="D5">
+        <v>36.871667449999997</v>
+      </c>
+      <c r="E5">
+        <v>30.97367393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6">
+        <v>8.2530000000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.3</v>
+      </c>
+      <c r="D6">
+        <v>40.357673720000001</v>
+      </c>
+      <c r="E6">
+        <v>5.98858128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7">
+        <v>20.76</v>
+      </c>
+      <c r="C7">
+        <v>0.3</v>
+      </c>
+      <c r="D7">
+        <v>69.400443850000002</v>
+      </c>
+      <c r="E7">
+        <v>-2.4733920700000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C8">
+        <v>0.3</v>
+      </c>
+      <c r="D8">
+        <v>75.196215600000002</v>
+      </c>
+      <c r="E8">
+        <v>-57.257250519999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9">
+        <v>14.9</v>
+      </c>
+      <c r="C9">
+        <v>3.5</v>
+      </c>
+      <c r="D9">
+        <v>75.494945950000002</v>
+      </c>
+      <c r="E9">
+        <v>9.9833157299999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>0.7</v>
+      </c>
+      <c r="D10">
+        <v>86.821180720000001</v>
+      </c>
+      <c r="E10">
+        <v>-51.066713409999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11">
+        <v>15.7</v>
+      </c>
+      <c r="C11">
+        <v>0.7</v>
+      </c>
+      <c r="D11">
+        <v>94.617592560000006</v>
+      </c>
+      <c r="E11">
+        <v>-72.045027079999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12">
+        <v>3.1</v>
+      </c>
+      <c r="C12">
+        <v>0.8</v>
+      </c>
+      <c r="D12">
+        <v>234.74000905</v>
+      </c>
+      <c r="E12">
+        <v>-57.707336400000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13">
+        <v>-13</v>
+      </c>
+      <c r="C13">
+        <v>0.8</v>
+      </c>
+      <c r="D13">
+        <v>244.57467037999999</v>
+      </c>
+      <c r="E13">
+        <v>-28.613776040000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14">
+        <v>4.2</v>
+      </c>
+      <c r="C14">
+        <v>1.4</v>
+      </c>
+      <c r="D14">
+        <v>259.35640633000003</v>
+      </c>
+      <c r="E14">
+        <v>-66.950702930000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15">
+        <v>-0.4</v>
+      </c>
+      <c r="C15">
+        <v>0.5</v>
+      </c>
+      <c r="D15">
+        <v>270.76419887999998</v>
+      </c>
+      <c r="E15">
+        <v>-51.648800100000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16">
+        <v>-7.8</v>
+      </c>
+      <c r="C16">
+        <v>0.4</v>
+      </c>
+      <c r="D16">
+        <v>271.70785209000002</v>
+      </c>
+      <c r="E16">
+        <v>-43.424962149999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>281.36189990999998</v>
+      </c>
+      <c r="E17">
+        <v>-64.870897729999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18">
+        <v>-4.2</v>
+      </c>
+      <c r="C18">
+        <v>0.3</v>
+      </c>
+      <c r="D18">
+        <v>283.27441333000002</v>
+      </c>
+      <c r="E18">
+        <v>-50.180319009999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>4.2</v>
+      </c>
+      <c r="D19">
+        <v>290.71325236000001</v>
+      </c>
+      <c r="E19">
+        <v>-54.423728769999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20">
+        <v>0.1</v>
+      </c>
+      <c r="C20">
+        <v>0.4</v>
+      </c>
+      <c r="D20">
+        <v>290.74549532999998</v>
+      </c>
+      <c r="E20">
+        <v>-54.537849029999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21">
+        <v>-3.9299999999999997</v>
+      </c>
+      <c r="C21">
+        <v>0.3</v>
+      </c>
+      <c r="D21">
+        <v>310.46238469000002</v>
+      </c>
+      <c r="E21">
+        <v>-32.434341480000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22">
+        <v>-4.133</v>
+      </c>
+      <c r="C22">
+        <v>0.3</v>
+      </c>
+      <c r="D22">
+        <v>311.28891777000001</v>
+      </c>
+      <c r="E22">
+        <v>-31.34002422</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B23">
+        <v>-4.5</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>313.94849201</v>
+      </c>
+      <c r="E23">
+        <v>-17.114026169999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24">
+        <v>11.856</v>
+      </c>
+      <c r="C24">
+        <v>0.3</v>
+      </c>
+      <c r="D24">
+        <v>341.24098913</v>
+      </c>
+      <c r="E24">
+        <v>-33.250184750000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>